--- a/外包管理/Demoxlwings.xlsx
+++ b/外包管理/Demoxlwings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Data\GitHub\Python\外包管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EC5BAE-B6E9-4CA1-B255-1D9F12858BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8F63C-3C56-4912-93F6-5E88D6B3803D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4DCD0261-5BB6-420E-99EA-7AA46F2E5221}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{4DCD0261-5BB6-420E-99EA-7AA46F2E5221}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -163,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,9 +171,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBD159A-EB1A-455D-BC8F-CF1D8800D6D1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -509,7 +503,7 @@
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -549,7 +543,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -568,9 +562,8 @@
       <c r="F3" s="1">
         <v>43840</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -589,7 +582,6 @@
       <c r="F4" s="1">
         <v>43841</v>
       </c>
-      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
